--- a/src/output/translations.xlsx
+++ b/src/output/translations.xlsx
@@ -4380,7 +4380,7 @@
         <v>devices.base.mechanical.tooltip.staticforce_reduce</v>
       </c>
       <c r="B138" t="str">
-        <v>对于大扭矩基座，在转向的时候，可以减少扭矩使驾驶更轻松，同时加强ffb效果的细节</v>
+        <v>减弱弯道中持续的力矩但不会影响手感和路面细节</v>
       </c>
       <c r="C138" t="str">
         <v>減弱彎道中持續的力矩但不會影響手感和路面細節。</v>
